--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-11T19:44:14+00:00</t>
+    <t>2025-10-16T14:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T14:33:00+00:00</t>
+    <t>2025-10-16T19:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T19:07:33+00:00</t>
+    <t>2025-10-16T19:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T19:20:50+00:00</t>
+    <t>2025-10-16T19:47:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T19:47:02+00:00</t>
+    <t>2025-10-16T21:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T21:03:26+00:00</t>
+    <t>2025-10-16T21:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T21:17:38+00:00</t>
+    <t>2025-10-17T06:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T06:16:58+00:00</t>
+    <t>2025-10-17T07:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T07:01:09+00:00</t>
+    <t>2025-10-17T07:12:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T15:10:32+00:00</t>
+    <t>2025-10-18T07:06:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AnteriorChamberFlare.xlsx
+++ b/StructureDefinition-AnteriorChamberFlare.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T07:06:25+00:00</t>
+    <t>2025-10-18T07:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
